--- a/CreateNewProduct.xlsx
+++ b/CreateNewProduct.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5115"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H22"/>
+  <oleSize ref="A1:H15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>ProductCode</t>
   </si>
@@ -41,9 +41,6 @@
     <t>FinishType</t>
   </si>
   <si>
-    <t>HSNCode</t>
-  </si>
-  <si>
     <t>Oil Based</t>
   </si>
   <si>
@@ -83,28 +80,43 @@
     <t>PaintName</t>
   </si>
   <si>
-    <t>Sherwin Williams</t>
-  </si>
-  <si>
     <t>Tinters</t>
   </si>
   <si>
-    <t>Tinter Test</t>
-  </si>
-  <si>
     <t>ProportionOfPaint2</t>
   </si>
   <si>
-    <t>Test 117 (10 litre)</t>
-  </si>
-  <si>
     <t>Test 118 (10 litre)</t>
   </si>
   <si>
-    <t>Tinter (5 litre)</t>
-  </si>
-  <si>
-    <t>Test 2 (5 Litre)</t>
+    <t>Packsize</t>
+  </si>
+  <si>
+    <t>ProdQty</t>
+  </si>
+  <si>
+    <t>Jotun</t>
+  </si>
+  <si>
+    <t>Test 123 (10 litre)</t>
+  </si>
+  <si>
+    <t>Test 123 (10 Litre)</t>
+  </si>
+  <si>
+    <t>Test 124 (10 Litre)</t>
+  </si>
+  <si>
+    <t>Test 121 (10 litre)</t>
+  </si>
+  <si>
+    <t>Standard Product</t>
+  </si>
+  <si>
+    <t>HSNId</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,27 +489,27 @@
     <col min="8" max="8" width="22.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="19.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -512,108 +524,116 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>320004</v>
       </c>
       <c r="D2" s="1">
-        <v>32099090</v>
+        <v>32099099</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>320005</v>
       </c>
       <c r="D3" s="1">
-        <v>32159090</v>
+        <v>32099099</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>29</v>
@@ -622,29 +642,35 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -661,8 +687,10 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -679,8 +707,10 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -697,8 +727,10 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -709,9 +741,11 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -722,9 +756,11 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -735,9 +771,11 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -748,9 +786,14 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -761,9 +804,11 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -774,9 +819,11 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -787,9 +834,11 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -800,9 +849,11 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -813,15 +864,17 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -833,10 +886,12 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="R19" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
